--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/7_Ankara_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/7_Ankara_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD21E68-0505-41B0-88C8-6BEA45B9173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86DDCBB4-3726-4789-9590-31545D3EB270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{80833BCF-817E-4FA6-9B36-9FD87BADAB53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{18C42779-CC4C-4E93-AE01-77966490194C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -963,15 +963,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{22965C69-FCCE-4344-9B6D-D2A3BBFC26E7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9F359F66-25C9-4F9D-A743-BA468ADEFA69}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{23587A14-9A16-42FD-B069-F218824873D3}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F066E089-3302-4A52-B3DE-F6EA50F1AE96}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{3485F8E3-2578-46DD-AC8D-5E9518B8F0B1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{F5C5E25E-A751-4F4D-8CBB-95CF5CE120B4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{FB8DBBE5-A679-4DD0-B7EE-2377778CDAB2}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{2D338191-8112-4F59-A6F6-FF37AB1D0707}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{4525457D-74CE-408E-89FB-0469CC6462F6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9540C606-4000-4179-9922-9410E673C349}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2403E748-C72C-41C4-90AB-DBD385987E5D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{29A665E9-F591-4F92-86BA-BDBF5867D84B}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{16F9E7D1-0217-4E63-AF0C-1CCE3596FE0E}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{D9F1D5D5-FD35-4F43-8881-97765A0269D4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{D191C4AB-4FB6-49A9-A9CA-14C2BD0E908A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{4AF48F45-5676-40E7-9979-187FB425FA9F}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{1E44E676-10D7-4BD4-9F3B-EE7ADC73B683}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{09F22EDA-A165-4EB7-BD6A-F66875556412}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5485982E-37CA-4CC9-95B1-C0BD086BA935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F5EE98-4925-4F44-91D3-D9B67975024F}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2687,18 +2687,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE7E2C8D-5111-4611-AEC4-2E3E2DE9F600}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8276836B-1C5E-46BE-801C-F36112A7D5DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E78A973E-AE91-463C-8090-DFD091B06BED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05A5FB25-C2A6-4E98-BB0A-D4F009B5FACD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{98122DF1-BA3E-49A5-BDB3-B33DBC2E1A46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EB72579-D1CB-4FFB-821C-044077B14188}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{087584A0-D4B4-42B1-A35A-9B4245213460}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64B6E2E0-3065-4E44-9F12-A643E7D6597D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEB32C69-F261-47FA-A17D-47E6AC08D460}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F92DCECB-2287-46B1-A272-4623B281E804}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC5985CB-2275-401D-B6AA-0D83031013E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9A91A07-2770-49F6-A6FB-788EE259491D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F66AE468-5311-4472-9E0A-5C5239366B56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B0A5EA9-177E-4C5D-9A72-A6E773713E96}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF13C2D6-6AF7-4AEC-B8DB-140E5B1F87A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73F14970-2EE4-42C4-8818-FB1B3D20EAF1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4E14EC22-38AC-457B-AF77-2035C8EAA2DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{420C0462-B9AE-41B2-B432-6062AC6A12D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80CD61D9-F176-4D34-B4B8-66834F9687E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{214D63D3-9683-4B6B-ACD9-73B95A17E773}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{920E3AC9-5156-4470-A11D-B5CD6844A778}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D18230B-FD9A-449F-A8C8-43C15792E53A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E26F589A-545F-4694-AACE-9B1150818376}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E32B203-32A1-461E-879C-174B71489F08}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2711,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FA0B7E-BE66-4228-A184-C68E308FF95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3EFF67-59FC-44CF-A27F-1173F3F169D7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4034,18 +4034,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{206E69E2-FC9E-4B57-9B91-AD9481A0F991}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13734393-1625-40EE-B706-4DEFDE0EB108}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F05591C3-E8A4-4413-8134-21391691D5E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B86779D6-970C-415F-AE37-869468E7DADD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4BE6ADAC-857A-432C-A1DC-A0FFA3E83502}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCCD5094-4CB9-450A-8348-D8DDB8B10222}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C3869E7-C41C-4E2A-AF79-38FB75E50EA6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D071359-614E-423A-9082-16F6E37DFAAF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{773D63D5-33AB-4B0E-B35D-E9BFD93964F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{411770AE-F82C-49D1-B1E2-9352ECE25B31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C805E378-AB4C-4304-81BC-23194FC0C2B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EA0B3E3-3029-4567-9408-AA9FEEB91E61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{800269C3-0492-4E9C-9B82-5B1FBAE3F633}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E8858DF-D32F-483B-B804-5C23C0C31CC3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E04FB4D9-40DC-4600-B2FE-64B22B7C44A8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22F78830-C94B-441F-8FDD-6A13153F9723}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B449D737-3608-420D-838F-EC3EEAF934F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B54EB36-DFCA-4CD6-B9E4-F9B2E5048C1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{555B307D-41A7-4618-BA69-BE9C41E7803A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C053FD10-A2E5-47BA-8762-6A527C73468E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE41172F-B903-4193-84A1-680A99486338}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{593EDD52-4CE8-44F1-A0FE-EF0462BD3B5A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D25C0B3-7074-40ED-8091-CB6AF138D171}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08D6F9CA-2C2F-4C80-A3BC-5DAA698E4B1D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4058,7 +4058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160BF49E-0071-4A9D-8337-E3E797937BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245DA868-264E-4687-BE69-881B339D4424}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5377,18 +5377,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4CA9A02-C6B1-4B51-94E5-4DACE9CA19FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38459AD9-CA27-47A3-BB4F-873D35A57D0D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04BDF48B-F0CB-41FF-983E-5959FEF2EB8D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DB5662B0-6FE5-4AFF-9C95-3251DD824E1C}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C27951E9-908D-4742-BB15-064F9E8A3D64}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{910C5E35-9040-415E-BB97-4557AD39CB12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A93C0050-7409-4D1C-AF36-19AD2F26EF42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{642C17D9-984F-4F1E-A622-221A68465F94}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5416F6F7-8599-44F9-91BC-1811F29F01AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{670DEDE7-D69B-473B-87DC-7B9FAE071747}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12247B81-56FD-4049-85AB-F643BEEF5893}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4349AAC1-9194-474E-985C-7FC3A9E94E31}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{484F2FFB-8DDC-4D2E-AE38-DF3C11E7C79D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E8F3D19-963F-4669-A332-0E30F7C7E2DF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68CBCA80-3953-4BEB-83A6-25B62483B032}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AD1B0E1-8FC1-42E2-B97E-965B88ABFC8D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7A5B4078-8DB6-4A59-AFB0-28062F222E33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B4CAC80-CCCB-4932-96A8-5EB789E3D33E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF8E4404-FC32-4DC0-9212-B9CE5E114763}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32AAD2A5-ED4E-4B5D-8765-0C01051A07FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE8CA188-1EE6-4DEE-A99D-72EE4B8B981F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89C86AE7-4A56-42EB-AE48-2A6899764EFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03F9CC3B-A764-4856-B5CE-429054AE0308}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64F99FB1-ABC3-45E8-AD73-5D46A4403E02}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5401,7 +5401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECBE046-D23A-40CE-83D9-9E976B61280F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9058E3-9F1F-439A-904B-89D91FAED410}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6713,18 +6713,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF06698F-72AA-467A-A3B0-C8D49A0004F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D036C80E-C3DC-4F4A-A28C-ED47019C3468}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41561D4B-85E2-48A6-A7C5-3A8F876B8405}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9845972F-EC74-47BA-B845-99A35327F8A1}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{35682529-EEC6-42DF-A179-00AFFBC02F4E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94725889-1867-4463-8DFF-906D6D617AAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67D060D1-446F-45B6-B2B4-1FF78D9EAB83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D98388C0-B729-4C85-9941-9FEA3FAA0072}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81FE51A6-A905-4800-8E16-04A36A78B03A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71D979B7-B106-44EB-B533-C7F98AE22822}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AECA5A2-A1C9-449E-84D6-435DC8F9D8E4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F462289F-4EB6-4EEB-911A-D39D8F4D329D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91C60EED-21A9-4DD4-B99D-C41EC5FF6B15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80A99C4B-1E3D-4666-B864-BF80AAD2858E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A2A0A40-9E0A-410B-AD53-823460340A40}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E33FE43-A840-40D2-A986-399D0D386BAE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2EF921F7-AB8C-4736-BF58-B8CBBBF64F4A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{401DC46A-384B-4E84-854F-4FEC61965D8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05DB41AC-E744-48F0-8B41-16E58F1C0F09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62C3B68F-ACF2-42E1-95DA-AF189BEAA524}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13BA132E-D510-4697-B5E4-E4BB73CEEFCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DE65548-2004-450E-BC63-DA160DE59D8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC02DC44-4914-44F9-893D-779D3D604613}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93C2876A-1A56-4E0C-A3E8-00B9E7090D5F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6737,7 +6737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412BED99-773A-4897-B024-EDF6EC8FF2EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F56D68-2DB8-4F6B-98C8-0CDBD6D093DB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8072,18 +8072,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2C90A19-DCBD-48E9-B189-17490EE5C9AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A38363AE-B615-4369-8925-6E9E197B41B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6CA57BDE-98BB-448F-BF26-93533563203F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9544D56C-63C2-4D63-80BA-A7807690076A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DDF57824-619F-46FE-997C-01EB2E2CC5F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B4AB625-83F6-4E02-9C0E-2F8C9950514F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FC319AB-341B-495B-BD7F-A84E0ECB3948}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06F2FC05-2725-4EDD-BA47-6A6D23D02005}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2128EB9C-3599-48F9-A1A0-11EDC5991F5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69DA8310-FA2A-43A3-BDD0-6319E82F975C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EADBC5E1-CFB5-4F53-82F2-7AEDD1D77C21}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57D6B56D-F23E-495C-88A9-A091592B8157}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38F405EB-8E48-449F-B689-75B3A4743ADB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83DC5A6A-5F02-4592-A856-527E044FE48F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C352700F-BDB5-4FD4-95D4-DD2169651681}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F1851DD-A5FA-41F9-A3CA-72407570A119}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6F985C34-2888-4341-805F-68F0E7112F96}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{549D73E7-658E-47DB-B20A-4F52B4553186}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE9A5B36-2634-4C56-B4E8-D38B160A6AE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4990DB3-62E8-4D02-A194-F6B2C71F6567}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABEF981D-0523-48D9-9069-7098E551CD2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA143F20-989A-4ED0-8FDC-C94ED6E3FD6D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BCE5E89-CFDB-4E0E-AB75-B4667A345946}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1929512D-6554-4087-9EB6-25975EE81FF1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8096,7 +8096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037C1CB-36A3-4DB5-97CF-D779DC515034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB96399F-3B0A-48AE-A144-308D72AB89C5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9431,18 +9431,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D331B1B-9331-43C2-B51F-C3CE55C3837A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF662DB4-451C-48EE-AE87-69089BF89ADA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A29A6D5D-6356-47B2-BB88-92FFEF58E616}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24B2168F-4BF9-4E9A-B23E-CA021F2B14FD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{047CF757-0A2F-46E4-8E0B-E1AFEB9AE703}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC267E30-5584-450D-91D6-A33DE5B2CD01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD259E2D-964C-47DD-9B8B-287F94439193}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{214ECBCB-8047-43FD-94C1-C51F7D3C1DE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3920CE2-AA95-4A26-BE8D-12FE954D9C63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5993784-8009-488C-8A59-98CCCBCEC918}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD30B8B5-070D-4FEF-A41B-C43BBBEC5D7E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E44240E-5CDD-4D9E-8E50-C078E000CECF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B45C15C-946D-49D7-96CA-BCDB013E9A78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32CB9687-9367-4AF4-BEAF-8A29E13E9CB0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1F5EC51-DFF4-4A32-AB5E-03E2524628C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD86DAA3-7D3D-4918-86CA-DFA5EE908BAE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9321D9EC-D794-400D-82DF-583A61680B61}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C47E6DF-4468-443E-ABCF-56724EB88CDD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C94B0F21-9C04-4937-961E-D0660D4A94A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD3170AA-154A-4E35-8586-69498F88571F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42E3D63B-4404-4878-97CC-C274B72A3DCE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BAA18086-2A43-4F98-A661-496D6F28F8F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BBF58D1-A0F1-4B65-927B-6FC39432EB58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F355BF72-FAE7-49C8-B2D3-558E7C5871E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9455,7 +9455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FE37D-0EE0-4947-B3B5-D2C753BE3D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475B5C6E-8C68-4155-AE43-348F4CA29168}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10790,18 +10790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CAFBC74-B2CF-43DC-8175-05639CFAF6B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39D759BD-8E8F-4D88-BC10-EAD99C2FC762}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F761588-910A-4515-B2EC-7AA1DDE6AFDC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A03CAFAA-9A54-4E45-8653-08990E450F2A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F0A4C5A7-D0DD-4D70-9D04-40416FDE0EAA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CFEF2E9-192B-4E85-8DFD-5FBE713CB42A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69595AC4-D219-46E6-B40E-AA59D4D9B58D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CD70EDD-3303-4E71-88D6-6914A19A82A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE419607-7DD8-46E4-90C1-A0D9093B3806}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73D2CE4A-C2AA-450D-9577-11C00E263A94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B80C969-23B2-4625-9AA3-56E82AEEE330}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{045916E6-DD8B-4DE8-9E6E-5BF8CAB9ED6A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C9DF066-56C8-4A71-8140-0CCD5F37E2AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AC2C881-91D1-4CD9-A791-32E8E50FFEEA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3904BF63-DC58-4C83-816D-8C1BBE741473}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BCC1483D-D330-4F16-B5E0-88B2603A49FC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{881D1E82-65C2-4A22-B9B5-73D86D4D0493}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31C33E2E-3DE8-4B0F-8754-6CED054F5F6E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62839EF7-6D7C-4C31-84C9-FF4B3F6D9EEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E4424C1A-41D8-4E5A-B087-9C0B05D66A00}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{017DC6F7-1CBC-45B6-AFC6-5BF9827F29D4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C03708E9-E852-4713-8ED9-8F12503F1AC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A60AB65D-1C3A-45B3-B982-4845F6C8E36F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79CBBED9-C8B8-4BF9-B4EB-3FFD35B13540}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10814,7 +10814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464F4F58-74FF-4AB7-8AB4-CDCB9DF426D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C83038-734B-491D-A1F6-62CE320CA360}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12149,18 +12149,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40B4560B-462E-4588-8C69-A212AC29183D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D096A95A-A3F6-44DC-8378-D8169D1E9DA1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52A6D72C-4B81-4396-A718-839248F4C559}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{54741DF6-60C7-45E4-BE9C-980D835A9ECB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8F1433E4-80A5-4244-8D89-71F520EB5BCC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4AB43074-E352-4AF6-A48B-5A5A0B154183}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FA3E191-9AF6-499F-BFCE-D3F38AACFDAC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43BD83B6-5F72-4F2E-BE38-9D5D7A89E60D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{528404D3-C39B-4D03-A351-55928F4A38E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5ECDEFF9-8882-4573-B4E6-B05214242D33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31C6D321-E84B-41D4-B992-C7768FDA53DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37CD5A46-A528-403A-AD2E-32F637BF6BB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53D41B43-E1F4-4114-B720-01556E81263E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A36B1C2-D127-4492-9DDD-618469A4919C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EEDCD59-FE5C-4968-92AF-2856D175D48E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E62D576-08EC-4E12-AB52-6A74D3303251}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{19DF8217-D979-4671-8E71-43D580D3C3BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DF04FB3-0E9C-4BD7-BA3B-DA539DD960B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C30C0076-30B0-47C7-846A-CCBD3543FA15}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C2290A0-2175-44E2-A549-28E020424BD2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CEB5844E-D59F-4642-A053-1B094E5A66DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{505E527D-89E5-4BA7-A4DB-5F06BD8E9E30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA121FDF-8A4C-4DDF-B3EB-96592247BC90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDE11F25-5C68-45FE-8BDE-F4DD9F1C6B78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12173,7 +12173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66EB38F-88D1-4CFD-8C2F-B8CAE1E61687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A2D8B4-9774-483E-B41F-183241870342}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13508,18 +13508,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0218E0D4-9EA6-4DA5-B044-6B72986B4A07}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14603B28-1B01-478B-855A-F1FEEB2F9C83}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{952D5412-CACA-4078-BA22-C3D5FC2A1609}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B439EA8C-E7D0-40AE-853B-EAEED4DA2ED8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{30AA2744-13C3-42F6-9247-90BCC794B7A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1363B0FE-DD20-42B8-A5AE-41CB53F17F66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F42EF12-51AC-46C7-9AD5-BDD886101C47}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F6AD889-CD34-4130-A266-22A904DEFA72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{827E19EC-22D8-4059-8358-03140BDD285D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{281EC287-F98B-4298-A794-83F6CE8D692B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{495AD9DC-B340-4D3F-893B-7C267E7A3672}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{366F325B-EB63-4699-95E5-836E2EB552EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AACA0CF-1436-40E0-A6C5-A3CCB0968A01}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D51F1770-C144-4117-A253-84F45A7CAA47}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35CC5486-06A0-44A4-9193-E775C0EF1BEE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DFB3E7AB-639C-45A3-9211-2FBD8C215FC1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A2A15C3C-B4C7-4FCA-B17A-46C0477895CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F4BC862-5DF5-4DB5-91F1-3D5F38CB9729}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2BF22505-D651-478A-81C0-3D04326240C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0EFB447E-FF81-4D4E-B895-AFC8C85E356F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB8DA9B5-C953-4F89-8F74-4BE804D34A75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31738B01-90A3-449D-8DD4-6C8E166C1218}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A64AD435-FA20-4132-8881-B5BEAD678391}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8DB12C8-56C1-45FA-AA41-E65724C8D9A6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13532,7 +13532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D080CE71-E8FC-4809-9F71-E361C32FC96D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A0E81-7B59-406A-AD4E-678A3F25865C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14867,18 +14867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA617218-B085-47B6-AD0C-60594F0218DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F925848-C900-4AD1-BED7-4C7A75CCB8F4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F5B5543-E06F-4996-A012-0CB5F86264A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{792F1FBE-0BE3-4050-853C-A921D94AEDD5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9318EA70-64AD-473E-A8A4-EB8F2EA8C5E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1377E1F4-8021-42D7-A4B4-8567F12DFE3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11F666C1-B2AE-4EE4-827B-D32838718368}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63BAC3B7-E5AD-42FC-9A28-728226825F59}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{847BE77A-6D4D-429F-B3BD-2650FFE03749}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD93861F-E82D-46D6-893E-2582332D5F80}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F3C9226-7066-4E21-920C-E717176428BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77667772-08F8-43C0-A0F8-B9AD122B4DF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{139DB1FC-DDF4-43FB-910F-363392333F2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{633F11D2-A629-4D0D-BE59-A24CE97E7D81}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DC44483-D34D-43FB-B33E-4623D569B829}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27282813-D5B8-4E54-B5A6-A20E8A1C8C5F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{ADE821B9-ED34-4DF2-8F46-03F671E32008}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F02EBEB-E5AD-43C7-A713-FBA703208734}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9F6AF96-5163-4490-A362-0879D4C662C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CFE56BF-E1E0-41AF-AB93-96DFBE8FC529}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C28580E-E7A0-4C73-8D2F-A5B7DE135D7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F32A4EE9-1AD8-4062-A184-03CB68671D3C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AC6FB24-B6A8-4CD8-8A5A-790F368EA174}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21C762B8-04DD-4A6A-9804-7750971CD4C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14891,7 +14891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC810-DBCC-448A-916E-75133B558E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B6812-90F9-4269-A0BF-52E4CA8138D7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16222,18 +16222,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64A2B633-F4AB-48B8-9852-67C4896A555D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFB93871-7016-4195-9CE2-91860969C519}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07521143-4B1D-4F93-A82C-5469821B901D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75B81ECE-52B8-4BC5-B9A0-E1BFC62455CD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BF9CF8FD-896C-4C76-B3CE-857605684137}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4374AA21-BB26-413E-B3D6-D6E80BEE72E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C66B865-BDDE-445A-8EF0-0B77055F9B93}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3120ECC9-8B41-4D59-9D16-3F3E415FE2BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64706588-BD12-4990-A95B-A5E627D68E44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{027F041D-EE7F-4D9C-8626-0078161A6B85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4E213C9-F48D-43D0-A977-DDE8912958C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{976E1803-69C1-4958-8115-2B9244D7C16E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D379AD1A-AD9A-47EA-981B-9E3C2A19EC03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE60EFF3-262C-49D9-890C-1BFB3BDC4E54}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B955DC0-27B9-404D-81EF-AF68CA71FF22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90522BAC-4A20-481D-B237-49A1E42343A5}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F00728F6-0FA8-4FF3-817F-F973BDB13127}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7FF34F0C-8A66-41CB-919B-040649FDC3D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7965E8CE-326C-4078-89CE-3DD5D3C810C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D3ACE9D-1EC4-489F-BB58-695CE06B02BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B5FD5B7-C932-4CD2-AFE2-AB05781E090D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF921B7C-0CF4-4DFA-A17C-FD02C993C874}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3DBC843-8C88-4C32-844C-3E0E9FC88242}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{252CE10A-BB7D-41AC-861A-42B8137A8B6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16246,7 +16246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F406804C-6EED-4D2B-8250-A4A82B594447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814EB1D2-8486-41E0-9D1C-CED4D55A4FF8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17577,18 +17577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E636E673-D91B-4D72-985B-D9B59A74CDC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44B6AACC-FBA5-45E0-9C04-3BB0A1D23A1F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D854D8E7-A1A1-4543-88D7-A1F06ADB9D62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8937E84-714C-4DDC-B798-E2C398A62246}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D4C7EE6B-D361-4637-A13A-BA42A7BEA2CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2FB5EB35-C671-4928-B6DD-D28F44C77E9B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB9DCE8A-4F61-4A00-BA13-3EEB9334F257}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DCB7F344-F52B-4FEB-83C2-0ED196B7E145}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F76CF03E-5E86-464B-B028-5C38281F7395}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AA63B0D-C6F8-4B02-9FBD-B2EB759CBA1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BDB4855-46EA-40E8-BA75-23D6BCAFEF50}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE29377B-568A-4A41-81CC-8F40A39322D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{091FFBAB-7B25-4993-8CB6-C1CA51B960CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5889C30-7C92-4020-B409-79F85E9A6DA3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70FF8233-AAD5-4E6C-8013-92FBE3CAA3CF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A55DCEF-DEBA-42D4-A45A-156AFAE07ACC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{666027F9-3D3C-49E9-8EE8-15F7A2BEF091}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B595A62-AED0-4E8D-8A97-FF29F36A55B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44C017C0-4A43-40C6-9D19-ED2E0A18B62C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19302361-5CD1-4024-B83F-08BCEA58C245}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C57F45A1-32D6-4E6D-98CF-1AD0A9DC6FCC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DB5573D-152E-4241-AEFD-9D4CBD8393B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FECD1AD-0C63-4A06-BB4C-F92B4846A9B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7E6E3A2-9D20-4747-9332-7AD9C717417E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
